--- a/Tables/Tower.xlsx
+++ b/Tables/Tower.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>名称</t>
   </si>
@@ -31,7 +31,7 @@
     <t>移动速度</t>
   </si>
   <si>
-    <t>条件</t>
+    <t>技能</t>
   </si>
   <si>
     <t>Name</t>
@@ -49,7 +49,7 @@
     <t>Speed</t>
   </si>
   <si>
-    <t>condition</t>
+    <t>Skills</t>
   </si>
   <si>
     <t>string</t>
@@ -58,7 +58,7 @@
     <t>int</t>
   </si>
   <si>
-    <t>condition_list</t>
+    <t>int_array</t>
   </si>
   <si>
     <t>测试塔</t>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>0</t>
+  </si>
+  <si>
+    <t>1000001</t>
   </si>
 </sst>
 </file>
@@ -723,15 +726,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1058,7 +1058,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="5"/>
@@ -1067,25 +1067,24 @@
     <col min="2" max="2" width="20.8333333333333" style="1" customWidth="1"/>
     <col min="3" max="3" width="21.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="26.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18" style="1" customWidth="1"/>
-    <col min="6" max="6" width="46.95" style="2" customWidth="1"/>
+    <col min="5" max="6" width="18" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9.14166666666667" style="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:6">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
@@ -1093,19 +1092,19 @@
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:6">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
@@ -1113,19 +1112,19 @@
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:6">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F3" s="2" t="s">
@@ -1133,22 +1132,24 @@
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:6">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="2"/>
+      <c r="F4" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="5" customFormat="1" spans="1:6">
       <c r="A5" s="1"/>
@@ -1156,7 +1157,7 @@
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="2"/>
+      <c r="F5" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Tables/Tower.xlsx
+++ b/Tables/Tower.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17340"/>
+    <workbookView windowWidth="24225" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
   <si>
     <t>名称</t>
   </si>
@@ -61,7 +61,7 @@
     <t>int_array</t>
   </si>
   <si>
-    <t>测试塔</t>
+    <t>弓箭塔</t>
   </si>
   <si>
     <t>10000</t>
@@ -77,6 +77,30 @@
   </si>
   <si>
     <t>1000001</t>
+  </si>
+  <si>
+    <t>法师塔</t>
+  </si>
+  <si>
+    <t>20000</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>投石机</t>
+  </si>
+  <si>
+    <t>30000</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>40</t>
   </si>
 </sst>
 </file>
@@ -1055,13 +1079,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="14.25" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="21.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="20.8333333333333" style="1" customWidth="1"/>
@@ -1151,13 +1175,261 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" customFormat="1" spans="1:6">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+    <row r="5" customFormat="1" ht="13.5" spans="1:6">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" customFormat="1" ht="13.5" spans="1:6">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" ht="13.5" spans="1:6">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Tables/Tower.xlsx
+++ b/Tables/Tower.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12540"/>
+    <workbookView windowHeight="17940"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="81">
   <si>
     <t>名称</t>
   </si>
@@ -22,6 +22,9 @@
     <t>编号</t>
   </si>
   <si>
+    <t>价格</t>
+  </si>
+  <si>
     <t>攻击力</t>
   </si>
   <si>
@@ -34,12 +37,18 @@
     <t>技能</t>
   </si>
   <si>
+    <t>列表效果器</t>
+  </si>
+  <si>
     <t>Name</t>
   </si>
   <si>
     <t>ID</t>
   </si>
   <si>
+    <t>Cost</t>
+  </si>
+  <si>
     <t>Atk</t>
   </si>
   <si>
@@ -52,6 +61,9 @@
     <t>Skills</t>
   </si>
   <si>
+    <t>BuildEffect</t>
+  </si>
+  <si>
     <t>string</t>
   </si>
   <si>
@@ -61,46 +73,190 @@
     <t>int_array</t>
   </si>
   <si>
+    <t>event_effect</t>
+  </si>
+  <si>
     <t>弓箭塔</t>
   </si>
   <si>
     <t>10000</t>
   </si>
   <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1000001</t>
+  </si>
+  <si>
+    <t>升级塔:10010,出售塔:0</t>
+  </si>
+  <si>
+    <t>射手塔</t>
+  </si>
+  <si>
+    <t>10010</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>升级塔:10020,出售塔:0</t>
+  </si>
+  <si>
+    <t>斥候塔</t>
+  </si>
+  <si>
+    <t>10020</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>出售塔:0</t>
+  </si>
+  <si>
+    <t>法师塔</t>
+  </si>
+  <si>
+    <t>20000</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>升级塔:20010,出售塔:0</t>
+  </si>
+  <si>
+    <t>奥术塔</t>
+  </si>
+  <si>
+    <t>20010</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>升级塔:20020,出售塔:0</t>
+  </si>
+  <si>
+    <t>异能塔</t>
+  </si>
+  <si>
+    <t>20020</t>
+  </si>
+  <si>
+    <t>250</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>投石机</t>
+  </si>
+  <si>
+    <t>30000</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>升级塔:30010,出售塔:0</t>
+  </si>
+  <si>
+    <t>投石车</t>
+  </si>
+  <si>
+    <t>30010</t>
+  </si>
+  <si>
+    <t>220</t>
+  </si>
+  <si>
+    <t>升级塔:30020,出售塔:0</t>
+  </si>
+  <si>
+    <t>投石矩阵</t>
+  </si>
+  <si>
+    <t>30020</t>
+  </si>
+  <si>
+    <t>320</t>
+  </si>
+  <si>
+    <t>看守</t>
+  </si>
+  <si>
+    <t>40000</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>升级塔:40010,出售塔:0</t>
+  </si>
+  <si>
+    <t>兵营</t>
+  </si>
+  <si>
+    <t>40010</t>
+  </si>
+  <si>
     <t>5</t>
   </si>
   <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1000001</t>
-  </si>
-  <si>
-    <t>法师塔</t>
-  </si>
-  <si>
-    <t>20000</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>投石机</t>
-  </si>
-  <si>
-    <t>30000</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>40</t>
+    <t>90</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>升级塔:40020,出售塔:0</t>
+  </si>
+  <si>
+    <t>殿堂</t>
+  </si>
+  <si>
+    <t>40020</t>
+  </si>
+  <si>
+    <t>140</t>
+  </si>
+  <si>
+    <t>150</t>
   </si>
 </sst>
 </file>
@@ -1079,23 +1235,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="14.25" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="14.25" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="21.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.8333333333333" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26.5" style="1" customWidth="1"/>
-    <col min="5" max="6" width="18" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.14166666666667" style="1"/>
+    <col min="2" max="3" width="20.8333333333333" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="26.5" style="1" customWidth="1"/>
+    <col min="6" max="7" width="18" style="1" customWidth="1"/>
+    <col min="8" max="8" width="42" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.14166666666667" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:6">
+    <row r="1" s="1" customFormat="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1114,322 +1272,576 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:6">
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:6">
+        <v>13</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:8">
       <c r="A3" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:6">
+        <v>17</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="13.5" spans="1:8">
       <c r="A4" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" customFormat="1" ht="13.5" spans="1:6">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" customFormat="1" ht="13.5" spans="1:6">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" ht="13.5" spans="1:6">
+        <v>25</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" customFormat="1" ht="13.5" spans="1:8">
+      <c r="A5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" ht="13.5" spans="1:8">
+      <c r="A6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" customFormat="1" ht="13.5" spans="1:8">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="2" t="s">
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" ht="13.5" spans="1:8">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" ht="13.5" spans="1:8">
+      <c r="A9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="G9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="H9" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" ht="13.5" spans="1:8">
+      <c r="A10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" ht="13.5" spans="1:8">
+      <c r="A11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" ht="13.5" spans="1:8">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" ht="13.5" spans="1:8">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" ht="13.5" spans="1:8">
+      <c r="A14" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" ht="13.5" spans="1:8">
+      <c r="A15" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" ht="13.5" spans="1:8">
+      <c r="A16" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" ht="13.5" spans="1:8">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" ht="13.5" spans="1:8">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+    </row>
+    <row r="19" ht="13.5" spans="1:8">
+      <c r="A19" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" ht="13.5" spans="1:8">
+      <c r="A20" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" ht="13.5" spans="1:8">
+      <c r="A21" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" ht="13.5" spans="1:8">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+    </row>
+    <row r="23" ht="13.5" spans="1:8">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+    </row>
+    <row r="24" ht="13.5" spans="1:8">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="1:6">
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+    </row>
+    <row r="25" ht="13.5" spans="1:8">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
-    </row>
-    <row r="26" spans="1:6">
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+    </row>
+    <row r="26" ht="13.5" spans="1:8">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
-    </row>
-    <row r="27" spans="1:6">
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+    </row>
+    <row r="27" ht="13.5" spans="1:8">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+    </row>
+    <row r="28" ht="13.5" spans="1:8">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
-    </row>
-    <row r="29" spans="1:6">
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+    </row>
+    <row r="29" ht="13.5" spans="1:8">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
-    </row>
-    <row r="30" spans="1:6">
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+    </row>
+    <row r="30" ht="13.5" spans="1:8">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
-    </row>
-    <row r="31" spans="1:6">
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+    </row>
+    <row r="31" ht="13.5" spans="1:8">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
-    </row>
-    <row r="32" spans="1:6">
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+    </row>
+    <row r="32" ht="13.5" spans="1:8">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
-    </row>
-    <row r="33" spans="1:6">
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+    </row>
+    <row r="33" ht="13.5" spans="1:8">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+    </row>
+    <row r="34" ht="13.5" spans="1:8">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+    </row>
+    <row r="35" ht="13.5" spans="1:8">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Tables/Tower.xlsx
+++ b/Tables/Tower.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17940"/>
+    <workbookView windowHeight="17340"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="95">
   <si>
     <t>名称</t>
   </si>
@@ -22,6 +22,9 @@
     <t>编号</t>
   </si>
   <si>
+    <t>形象</t>
+  </si>
+  <si>
     <t>价格</t>
   </si>
   <si>
@@ -46,6 +49,9 @@
     <t>ID</t>
   </si>
   <si>
+    <t>Character</t>
+  </si>
+  <si>
     <t>Cost</t>
   </si>
   <si>
@@ -82,6 +88,9 @@
     <t>10000</t>
   </si>
   <si>
+    <t>10010000</t>
+  </si>
+  <si>
     <t>70</t>
   </si>
   <si>
@@ -106,6 +115,9 @@
     <t>10010</t>
   </si>
   <si>
+    <t>10010010</t>
+  </si>
+  <si>
     <t>110</t>
   </si>
   <si>
@@ -121,6 +133,9 @@
     <t>10020</t>
   </si>
   <si>
+    <t>10010020</t>
+  </si>
+  <si>
     <t>160</t>
   </si>
   <si>
@@ -139,6 +154,9 @@
     <t>20000</t>
   </si>
   <si>
+    <t>10020000</t>
+  </si>
+  <si>
     <t>100</t>
   </si>
   <si>
@@ -157,6 +175,9 @@
     <t>20010</t>
   </si>
   <si>
+    <t>10020010</t>
+  </si>
+  <si>
     <t>24</t>
   </si>
   <si>
@@ -172,6 +193,9 @@
     <t>20020</t>
   </si>
   <si>
+    <t>10020020</t>
+  </si>
+  <si>
     <t>250</t>
   </si>
   <si>
@@ -184,6 +208,9 @@
     <t>30000</t>
   </si>
   <si>
+    <t>10030000</t>
+  </si>
+  <si>
     <t>125</t>
   </si>
   <si>
@@ -202,6 +229,9 @@
     <t>30010</t>
   </si>
   <si>
+    <t>10030010</t>
+  </si>
+  <si>
     <t>220</t>
   </si>
   <si>
@@ -214,6 +244,9 @@
     <t>30020</t>
   </si>
   <si>
+    <t>10030020</t>
+  </si>
+  <si>
     <t>320</t>
   </si>
   <si>
@@ -223,6 +256,9 @@
     <t>40000</t>
   </si>
   <si>
+    <t>10040000</t>
+  </si>
+  <si>
     <t>2</t>
   </si>
   <si>
@@ -235,6 +271,9 @@
     <t>40010</t>
   </si>
   <si>
+    <t>10040010</t>
+  </si>
+  <si>
     <t>5</t>
   </si>
   <si>
@@ -251,6 +290,9 @@
   </si>
   <si>
     <t>40020</t>
+  </si>
+  <si>
+    <t>10040020</t>
   </si>
   <si>
     <t>140</t>
@@ -1235,25 +1277,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="C4" sqref="C4:C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="14.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="21.625" style="1" customWidth="1"/>
-    <col min="2" max="3" width="20.8333333333333" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="26.5" style="1" customWidth="1"/>
-    <col min="6" max="7" width="18" style="1" customWidth="1"/>
-    <col min="8" max="8" width="42" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.14166666666667" style="1"/>
+    <col min="2" max="4" width="20.8333333333333" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="26.5" style="1" customWidth="1"/>
+    <col min="7" max="8" width="18" style="1" customWidth="1"/>
+    <col min="9" max="9" width="42" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.14166666666667" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:8">
+    <row r="1" s="1" customFormat="1" spans="1:9">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1278,138 +1320,156 @@
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:8">
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:9">
       <c r="A2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:9">
       <c r="A3" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="13.5" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:9">
       <c r="A4" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" customFormat="1" ht="13.5" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" customFormat="1" ht="13.5" spans="1:9">
       <c r="A5" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>25</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" customFormat="1" ht="13.5" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" ht="13.5" spans="1:9">
       <c r="A6" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" customFormat="1" ht="13.5" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" customFormat="1" ht="13.5" spans="1:9">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -1418,8 +1478,9 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
-    </row>
-    <row r="8" ht="13.5" spans="1:8">
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" ht="13.5" spans="1:9">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -1428,86 +1489,96 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
-    </row>
-    <row r="9" ht="13.5" spans="1:8">
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" ht="13.5" spans="1:9">
       <c r="A9" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" ht="13.5" spans="1:9">
+      <c r="A10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="2" t="s">
+      <c r="E10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" ht="13.5" spans="1:9">
+      <c r="A11" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" ht="13.5" spans="1:8">
-      <c r="A10" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" ht="13.5" spans="1:8">
-      <c r="A11" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" ht="13.5" spans="1:8">
+    </row>
+    <row r="12" ht="13.5" spans="1:9">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -1516,8 +1587,9 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
-    </row>
-    <row r="13" ht="13.5" spans="1:8">
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" ht="13.5" spans="1:9">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -1526,86 +1598,96 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
-    </row>
-    <row r="14" ht="13.5" spans="1:8">
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" ht="13.5" spans="1:9">
       <c r="A14" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" ht="13.5" spans="1:9">
+      <c r="A15" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="15" ht="13.5" spans="1:8">
-      <c r="A15" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B15" s="2" t="s">
+      <c r="F15" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="G15" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="16" ht="13.5" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" ht="13.5" spans="1:9">
       <c r="A16" s="2" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>25</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" ht="13.5" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" ht="13.5" spans="1:9">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -1614,8 +1696,9 @@
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
-    </row>
-    <row r="18" ht="13.5" spans="1:8">
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" ht="13.5" spans="1:9">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -1624,86 +1707,96 @@
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
-    </row>
-    <row r="19" ht="13.5" spans="1:8">
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" ht="13.5" spans="1:9">
       <c r="A19" s="2" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="E19" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" ht="13.5" spans="1:9">
+      <c r="A20" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" ht="13.5" spans="1:9">
+      <c r="A21" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F19" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="20" ht="13.5" spans="1:8">
-      <c r="A20" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="21" ht="13.5" spans="1:8">
-      <c r="A21" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="F21" s="2" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>26</v>
+        <v>94</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" ht="13.5" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" ht="13.5" spans="1:9">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -1712,8 +1805,9 @@
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
-    </row>
-    <row r="23" ht="13.5" spans="1:8">
+      <c r="I22" s="2"/>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -1722,8 +1816,9 @@
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
-    </row>
-    <row r="24" ht="13.5" spans="1:8">
+      <c r="I23" s="2"/>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -1732,8 +1827,9 @@
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
-    </row>
-    <row r="25" ht="13.5" spans="1:8">
+      <c r="I24" s="2"/>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -1742,8 +1838,9 @@
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
-    </row>
-    <row r="26" ht="13.5" spans="1:8">
+      <c r="I25" s="2"/>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -1752,8 +1849,9 @@
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
-    </row>
-    <row r="27" ht="13.5" spans="1:8">
+      <c r="I26" s="2"/>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -1762,8 +1860,9 @@
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
-    </row>
-    <row r="28" ht="13.5" spans="1:8">
+      <c r="I27" s="2"/>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -1772,8 +1871,9 @@
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
-    </row>
-    <row r="29" ht="13.5" spans="1:8">
+      <c r="I28" s="2"/>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -1782,8 +1882,9 @@
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
-    </row>
-    <row r="30" ht="13.5" spans="1:8">
+      <c r="I29" s="2"/>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -1792,8 +1893,9 @@
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
-    </row>
-    <row r="31" ht="13.5" spans="1:8">
+      <c r="I30" s="2"/>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -1802,8 +1904,9 @@
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
-    </row>
-    <row r="32" ht="13.5" spans="1:8">
+      <c r="I31" s="2"/>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -1812,8 +1915,9 @@
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
-    </row>
-    <row r="33" ht="13.5" spans="1:8">
+      <c r="I32" s="2"/>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -1822,8 +1926,9 @@
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
-    </row>
-    <row r="34" ht="13.5" spans="1:8">
+      <c r="I33" s="2"/>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -1832,8 +1937,9 @@
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
-    </row>
-    <row r="35" ht="13.5" spans="1:8">
+      <c r="I34" s="2"/>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -1842,6 +1948,7 @@
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Tables/Tower.xlsx
+++ b/Tables/Tower.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="94">
   <si>
     <t>名称</t>
   </si>
@@ -79,7 +79,7 @@
     <t>int_array</t>
   </si>
   <si>
-    <t>event_effect</t>
+    <t>event_list</t>
   </si>
   <si>
     <t>弓箭塔</t>
@@ -106,7 +106,7 @@
     <t>1000001</t>
   </si>
   <si>
-    <t>升级塔:10010,出售塔:0</t>
+    <t>升级塔:10010</t>
   </si>
   <si>
     <t>射手塔</t>
@@ -124,7 +124,7 @@
     <t>6</t>
   </si>
   <si>
-    <t>升级塔:10020,出售塔:0</t>
+    <t>升级塔:10020</t>
   </si>
   <si>
     <t>斥候塔</t>
@@ -145,9 +145,6 @@
     <t>80</t>
   </si>
   <si>
-    <t>出售塔:0</t>
-  </si>
-  <si>
     <t>法师塔</t>
   </si>
   <si>
@@ -166,7 +163,7 @@
     <t>45</t>
   </si>
   <si>
-    <t>升级塔:20010,出售塔:0</t>
+    <t>升级塔:20010</t>
   </si>
   <si>
     <t>奥术塔</t>
@@ -184,7 +181,7 @@
     <t>50</t>
   </si>
   <si>
-    <t>升级塔:20020,出售塔:0</t>
+    <t>升级塔:20020</t>
   </si>
   <si>
     <t>异能塔</t>
@@ -220,7 +217,7 @@
     <t>40</t>
   </si>
   <si>
-    <t>升级塔:30010,出售塔:0</t>
+    <t>升级塔:30010</t>
   </si>
   <si>
     <t>投石车</t>
@@ -235,7 +232,7 @@
     <t>220</t>
   </si>
   <si>
-    <t>升级塔:30020,出售塔:0</t>
+    <t>升级塔:30020</t>
   </si>
   <si>
     <t>投石矩阵</t>
@@ -262,7 +259,7 @@
     <t>2</t>
   </si>
   <si>
-    <t>升级塔:40010,出售塔:0</t>
+    <t>升级塔:40010</t>
   </si>
   <si>
     <t>兵营</t>
@@ -283,7 +280,7 @@
     <t>120</t>
   </si>
   <si>
-    <t>升级塔:40020,出售塔:0</t>
+    <t>升级塔:40020</t>
   </si>
   <si>
     <t>殿堂</t>
@@ -1280,7 +1277,7 @@
   <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C21"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="14.25"/>
@@ -1465,9 +1462,7 @@
       <c r="H6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="I6" s="2"/>
     </row>
     <row r="7" customFormat="1" ht="13.5" spans="1:9">
       <c r="A7" s="2"/>
@@ -1493,22 +1488,22 @@
     </row>
     <row r="9" ht="13.5" spans="1:9">
       <c r="A9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="F9" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>49</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>28</v>
@@ -1517,27 +1512,27 @@
         <v>29</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" ht="13.5" spans="1:9">
       <c r="A10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>28</v>
@@ -1546,27 +1541,27 @@
         <v>29</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" ht="13.5" spans="1:9">
       <c r="A11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="E11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>28</v>
@@ -1574,9 +1569,7 @@
       <c r="H11" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I11" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="I11" s="2"/>
     </row>
     <row r="12" ht="13.5" spans="1:9">
       <c r="A12" s="2"/>
@@ -1602,22 +1595,22 @@
     </row>
     <row r="14" ht="13.5" spans="1:9">
       <c r="A14" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="E14" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="F14" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>28</v>
@@ -1626,27 +1619,27 @@
         <v>29</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" ht="13.5" spans="1:9">
       <c r="A15" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="E15" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>28</v>
@@ -1655,24 +1648,24 @@
         <v>29</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" ht="13.5" spans="1:9">
       <c r="A16" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="E16" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>25</v>
@@ -1683,9 +1676,7 @@
       <c r="H16" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I16" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="I16" s="2"/>
     </row>
     <row r="17" ht="13.5" spans="1:9">
       <c r="A17" s="2"/>
@@ -1711,90 +1702,88 @@
     </row>
     <row r="19" ht="13.5" spans="1:9">
       <c r="A19" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="C19" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="D19" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="F19" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>29</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" ht="13.5" spans="1:9">
       <c r="A20" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>85</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E20" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="G20" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>88</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>29</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21" ht="13.5" spans="1:9">
       <c r="A21" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="D21" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F21" s="2" t="s">
+      <c r="G21" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>94</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I21" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="I21" s="2"/>
     </row>
     <row r="22" ht="13.5" spans="1:9">
       <c r="A22" s="2"/>
@@ -1807,7 +1796,7 @@
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" ht="13.5" spans="1:9">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -1818,7 +1807,7 @@
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" ht="13.5" spans="1:9">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -1829,7 +1818,7 @@
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" ht="13.5" spans="1:9">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -1840,7 +1829,7 @@
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" ht="13.5" spans="1:9">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -1851,7 +1840,7 @@
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" ht="13.5" spans="1:9">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -1862,7 +1851,7 @@
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" ht="13.5" spans="1:9">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -1873,7 +1862,7 @@
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" ht="13.5" spans="1:9">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -1884,7 +1873,7 @@
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" ht="13.5" spans="1:9">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -1895,7 +1884,7 @@
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" ht="13.5" spans="1:9">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -1906,7 +1895,7 @@
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" ht="13.5" spans="1:9">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -1917,7 +1906,7 @@
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" ht="13.5" spans="1:9">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -1928,7 +1917,7 @@
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" ht="13.5" spans="1:9">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -1939,7 +1928,7 @@
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" ht="13.5" spans="1:9">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>

--- a/Tables/Tower.xlsx
+++ b/Tables/Tower.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="95">
   <si>
     <t>名称</t>
   </si>
@@ -161,6 +161,9 @@
   </si>
   <si>
     <t>45</t>
+  </si>
+  <si>
+    <t>2000001</t>
   </si>
   <si>
     <t>升级塔:20010</t>
@@ -1277,7 +1280,7 @@
   <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="14.25"/>
@@ -1486,7 +1489,7 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" ht="13.5" spans="1:9">
+    <row r="9" spans="1:9">
       <c r="A9" s="2" t="s">
         <v>43</v>
       </c>
@@ -1509,65 +1512,65 @@
         <v>28</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" ht="13.5" spans="1:9">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>28</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" ht="13.5" spans="1:9">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>48</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>28</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="I11" s="2"/>
     </row>
@@ -1595,22 +1598,22 @@
     </row>
     <row r="14" ht="13.5" spans="1:9">
       <c r="A14" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>28</v>
@@ -1619,27 +1622,27 @@
         <v>29</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" ht="13.5" spans="1:9">
       <c r="A15" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>28</v>
@@ -1648,24 +1651,24 @@
         <v>29</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" ht="13.5" spans="1:9">
       <c r="A16" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>25</v>
@@ -1702,22 +1705,22 @@
     </row>
     <row r="19" ht="13.5" spans="1:9">
       <c r="A19" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>46</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>46</v>
@@ -1726,59 +1729,59 @@
         <v>29</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" ht="13.5" spans="1:9">
       <c r="A20" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>29</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21" ht="13.5" spans="1:9">
       <c r="A21" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>29</v>

--- a/Tables/Tower.xlsx
+++ b/Tables/Tower.xlsx
@@ -1280,7 +1280,7 @@
   <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="14.25"/>

--- a/Tables/Tower.xlsx
+++ b/Tables/Tower.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17340"/>
+    <workbookView windowWidth="24225" windowHeight="11940"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="97">
   <si>
     <t>名称</t>
   </si>
@@ -124,6 +124,9 @@
     <t>6</t>
   </si>
   <si>
+    <t>1000002</t>
+  </si>
+  <si>
     <t>升级塔:10020</t>
   </si>
   <si>
@@ -143,6 +146,9 @@
   </si>
   <si>
     <t>80</t>
+  </si>
+  <si>
+    <t>1000003</t>
   </si>
   <si>
     <t>法师塔</t>
@@ -1279,8 +1285,8 @@
   <sheetPr/>
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="14.25"/>
@@ -1434,36 +1440,36 @@
         <v>28</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" customFormat="1" ht="13.5" spans="1:9">
       <c r="A6" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>28</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="I6" s="2"/>
     </row>
@@ -1489,88 +1495,88 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" ht="13.5" spans="1:9">
       <c r="A9" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>28</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" ht="13.5" spans="1:9">
       <c r="A10" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>28</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" ht="13.5" spans="1:9">
       <c r="A11" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>28</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I11" s="2"/>
     </row>
@@ -1598,22 +1604,22 @@
     </row>
     <row r="14" ht="13.5" spans="1:9">
       <c r="A14" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>28</v>
@@ -1622,27 +1628,27 @@
         <v>29</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" ht="13.5" spans="1:9">
       <c r="A15" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>28</v>
@@ -1651,24 +1657,24 @@
         <v>29</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" ht="13.5" spans="1:9">
       <c r="A16" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>25</v>
@@ -1705,83 +1711,83 @@
     </row>
     <row r="19" ht="13.5" spans="1:9">
       <c r="A19" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>29</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" ht="13.5" spans="1:9">
       <c r="A20" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>29</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" ht="13.5" spans="1:9">
       <c r="A21" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>29</v>

--- a/Tables/Tower.xlsx
+++ b/Tables/Tower.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="11940"/>
+    <workbookView windowHeight="17340"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="102">
   <si>
     <t>名称</t>
   </si>
@@ -121,10 +121,10 @@
     <t>110</t>
   </si>
   <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>1000002</t>
+    <t>8</t>
+  </si>
+  <si>
+    <t>1001001</t>
   </si>
   <si>
     <t>升级塔:10020</t>
@@ -142,13 +142,37 @@
     <t>160</t>
   </si>
   <si>
-    <t>8</t>
+    <t>12</t>
   </si>
   <si>
     <t>80</t>
   </si>
   <si>
-    <t>1000003</t>
+    <t>1002001</t>
+  </si>
+  <si>
+    <t>升级塔:10100</t>
+  </si>
+  <si>
+    <t>狙击塔</t>
+  </si>
+  <si>
+    <t>10100</t>
+  </si>
+  <si>
+    <t>10010100</t>
+  </si>
+  <si>
+    <t>250</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>1010001</t>
   </si>
   <si>
     <t>法师塔</t>
@@ -160,15 +184,9 @@
     <t>10020000</t>
   </si>
   <si>
-    <t>100</t>
-  </si>
-  <si>
     <t>10</t>
   </si>
   <si>
-    <t>45</t>
-  </si>
-  <si>
     <t>2000001</t>
   </si>
   <si>
@@ -200,9 +218,6 @@
   </si>
   <si>
     <t>10020020</t>
-  </si>
-  <si>
-    <t>250</t>
   </si>
   <si>
     <t>55</t>
@@ -1283,10 +1298,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="14.25"/>
@@ -1471,7 +1486,9 @@
       <c r="H6" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="I6" s="2"/>
+      <c r="I6" s="2" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="7" customFormat="1" ht="13.5" spans="1:9">
       <c r="A7" s="2"/>
@@ -1484,200 +1501,180 @@
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" ht="13.5" spans="1:9">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
+    <row r="8" customFormat="1" ht="13.5" spans="1:9">
+      <c r="A8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" ht="13.5" spans="1:9">
-      <c r="A9" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" ht="13.5" spans="1:9">
-      <c r="A10" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>58</v>
-      </c>
+    <row r="9" customFormat="1" ht="13.5" spans="1:9">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
     </row>
     <row r="11" ht="13.5" spans="1:9">
       <c r="A11" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="E11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>28</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I11" s="2"/>
+        <v>57</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="12" ht="13.5" spans="1:9">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
+      <c r="A12" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="13" ht="13.5" spans="1:9">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
+      <c r="A13" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>57</v>
+      </c>
       <c r="I13" s="2"/>
     </row>
     <row r="14" ht="13.5" spans="1:9">
-      <c r="A14" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>70</v>
-      </c>
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
     </row>
     <row r="15" ht="13.5" spans="1:9">
-      <c r="A15" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>75</v>
-      </c>
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
     </row>
     <row r="16" ht="13.5" spans="1:9">
       <c r="A16" s="2" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>25</v>
+        <v>74</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>28</v>
@@ -1685,135 +1682,171 @@
       <c r="H16" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I16" s="2"/>
+      <c r="I16" s="2" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="17" ht="13.5" spans="1:9">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
+      <c r="A17" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="18" ht="13.5" spans="1:9">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
+      <c r="A18" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="I18" s="2"/>
     </row>
     <row r="19" ht="13.5" spans="1:9">
-      <c r="A19" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>84</v>
-      </c>
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
     </row>
     <row r="20" ht="13.5" spans="1:9">
-      <c r="A20" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>91</v>
-      </c>
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
     </row>
     <row r="21" ht="13.5" spans="1:9">
       <c r="A21" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>49</v>
+        <v>88</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>95</v>
+        <v>63</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>96</v>
+        <v>51</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I21" s="2"/>
+      <c r="I21" s="2" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="22" ht="13.5" spans="1:9">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
+      <c r="A22" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="23" ht="13.5" spans="1:9">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
+      <c r="A23" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="I23" s="2"/>
     </row>
     <row r="24" ht="13.5" spans="1:9">
@@ -1948,6 +1981,28 @@
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
     </row>
+    <row r="36" ht="13.5" spans="1:9">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+    </row>
+    <row r="37" ht="13.5" spans="1:9">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Tables/Tower.xlsx
+++ b/Tables/Tower.xlsx
@@ -172,7 +172,7 @@
     <t>100</t>
   </si>
   <si>
-    <t>1010001</t>
+    <t>1010001,1010002</t>
   </si>
   <si>
     <t>法师塔</t>
@@ -1301,7 +1301,7 @@
   <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="14.25"/>
@@ -1539,7 +1539,7 @@
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" ht="13.5" spans="1:9">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>

--- a/Tables/Tower.xlsx
+++ b/Tables/Tower.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="115">
   <si>
     <t>名称</t>
   </si>
@@ -37,7 +37,10 @@
     <t>移动速度</t>
   </si>
   <si>
-    <t>技能</t>
+    <t>技能(可使用)</t>
+  </si>
+  <si>
+    <t>技能池(需要学习)</t>
   </si>
   <si>
     <t>列表效果器</t>
@@ -67,6 +70,9 @@
     <t>Skills</t>
   </si>
   <si>
+    <t>SkillPool</t>
+  </si>
+  <si>
     <t>BuildEffect</t>
   </si>
   <si>
@@ -151,7 +157,7 @@
     <t>1002001</t>
   </si>
   <si>
-    <t>升级塔:10100</t>
+    <t>升级塔:10100,升级塔:10110</t>
   </si>
   <si>
     <t>狙击塔</t>
@@ -163,61 +169,94 @@
     <t>10010100</t>
   </si>
   <si>
+    <t>260</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>1010001</t>
+  </si>
+  <si>
+    <t>1010011</t>
+  </si>
+  <si>
+    <t>毒箭塔</t>
+  </si>
+  <si>
+    <t>10110</t>
+  </si>
+  <si>
+    <t>10010110</t>
+  </si>
+  <si>
+    <t>245</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>1011001</t>
+  </si>
+  <si>
+    <t>1011011,1011012</t>
+  </si>
+  <si>
+    <t>学习技能:1010001,学习技能:1010011</t>
+  </si>
+  <si>
+    <t>学习技能:1011001</t>
+  </si>
+  <si>
+    <t>法师塔</t>
+  </si>
+  <si>
+    <t>20000</t>
+  </si>
+  <si>
+    <t>10020000</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>2000001</t>
+  </si>
+  <si>
+    <t>升级塔:20010</t>
+  </si>
+  <si>
+    <t>奥术塔</t>
+  </si>
+  <si>
+    <t>20010</t>
+  </si>
+  <si>
+    <t>10020010</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>升级塔:20020</t>
+  </si>
+  <si>
+    <t>异能塔</t>
+  </si>
+  <si>
+    <t>20020</t>
+  </si>
+  <si>
+    <t>10020020</t>
+  </si>
+  <si>
     <t>250</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>1010001,1010002</t>
-  </si>
-  <si>
-    <t>法师塔</t>
-  </si>
-  <si>
-    <t>20000</t>
-  </si>
-  <si>
-    <t>10020000</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>2000001</t>
-  </si>
-  <si>
-    <t>升级塔:20010</t>
-  </si>
-  <si>
-    <t>奥术塔</t>
-  </si>
-  <si>
-    <t>20010</t>
-  </si>
-  <si>
-    <t>10020010</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>升级塔:20020</t>
-  </si>
-  <si>
-    <t>异能塔</t>
-  </si>
-  <si>
-    <t>20020</t>
-  </si>
-  <si>
-    <t>10020020</t>
   </si>
   <si>
     <t>55</t>
@@ -1298,10 +1337,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="14.25"/>
@@ -1310,13 +1349,13 @@
     <col min="2" max="4" width="20.8333333333333" style="1" customWidth="1"/>
     <col min="5" max="5" width="21.5" style="1" customWidth="1"/>
     <col min="6" max="6" width="26.5" style="1" customWidth="1"/>
-    <col min="7" max="8" width="18" style="1" customWidth="1"/>
-    <col min="9" max="9" width="42" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.14166666666667" style="1"/>
+    <col min="7" max="9" width="18" style="1" customWidth="1"/>
+    <col min="10" max="10" width="42" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.14166666666667" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:9">
+    <row r="1" s="1" customFormat="1" spans="1:10">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1344,153 +1383,165 @@
       <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:9">
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:10">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:10">
       <c r="A3" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:10">
       <c r="A4" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" customFormat="1" ht="13.5" spans="1:10">
+      <c r="A5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I4" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="5" customFormat="1" ht="13.5" spans="1:9">
-      <c r="A5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="H5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" customFormat="1" ht="13.5" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" ht="13.5" spans="1:10">
       <c r="A6" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" customFormat="1" ht="13.5" spans="1:9">
+        <v>46</v>
+      </c>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" customFormat="1" ht="13.5" spans="1:10">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -1500,46 +1551,71 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
-    </row>
-    <row r="8" customFormat="1" ht="13.5" spans="1:9">
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" customFormat="1" ht="13.5" spans="1:10">
       <c r="A8" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="I8" s="2"/>
-    </row>
-    <row r="9" customFormat="1" ht="13.5" spans="1:9">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-    </row>
-    <row r="10" ht="13.5" spans="1:9">
+        <v>54</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" customFormat="1" ht="13.5" spans="1:10">
+      <c r="A9" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" customFormat="1" ht="13.5" spans="1:10">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -1549,66 +1625,35 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
-    </row>
-    <row r="11" ht="13.5" spans="1:9">
-      <c r="A11" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" ht="13.5" spans="1:9">
-      <c r="A12" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="I12" s="2" t="s">
+      <c r="J10" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="13" ht="13.5" spans="1:9">
+    <row r="11" customFormat="1" ht="13.5" spans="1:10">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" ht="13.5" spans="1:10">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+    </row>
+    <row r="13" ht="13.5" spans="1:10">
       <c r="A13" s="2" t="s">
         <v>65</v>
       </c>
@@ -1619,259 +1664,308 @@
         <v>67</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="F13" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" ht="13.5" spans="1:10">
+      <c r="A14" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" ht="13.5" spans="1:10">
+      <c r="A15" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+    </row>
+    <row r="16" ht="13.5" spans="1:10">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+    </row>
+    <row r="17" ht="13.5" spans="1:10">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+    </row>
+    <row r="18" ht="13.5" spans="1:10">
+      <c r="A18" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" ht="13.5" spans="1:10">
+      <c r="A19" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20" ht="13.5" spans="1:10">
+      <c r="A20" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+    </row>
+    <row r="21" ht="13.5" spans="1:10">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+    </row>
+    <row r="22" ht="13.5" spans="1:10">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+    </row>
+    <row r="23" ht="13.5" spans="1:10">
+      <c r="A23" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="24" ht="13.5" spans="1:10">
+      <c r="A24" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="25" ht="13.5" spans="1:10">
+      <c r="A25" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="G13" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="I13" s="2"/>
-    </row>
-    <row r="14" ht="13.5" spans="1:9">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-    </row>
-    <row r="15" ht="13.5" spans="1:9">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-    </row>
-    <row r="16" ht="13.5" spans="1:9">
-      <c r="A16" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="17" ht="13.5" spans="1:9">
-      <c r="A17" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="18" ht="13.5" spans="1:9">
-      <c r="A18" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I18" s="2"/>
-    </row>
-    <row r="19" ht="13.5" spans="1:9">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-    </row>
-    <row r="20" ht="13.5" spans="1:9">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-    </row>
-    <row r="21" ht="13.5" spans="1:9">
-      <c r="A21" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="22" ht="13.5" spans="1:9">
-      <c r="A22" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="23" ht="13.5" spans="1:9">
-      <c r="A23" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I23" s="2"/>
-    </row>
-    <row r="24" ht="13.5" spans="1:9">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-    </row>
-    <row r="25" ht="13.5" spans="1:9">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
+      <c r="F25" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="I25" s="2"/>
-    </row>
-    <row r="26" ht="13.5" spans="1:9">
+      <c r="J25" s="2"/>
+    </row>
+    <row r="26" ht="13.5" spans="1:10">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -1881,8 +1975,9 @@
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
-    </row>
-    <row r="27" ht="13.5" spans="1:9">
+      <c r="J26" s="2"/>
+    </row>
+    <row r="27" ht="13.5" spans="1:10">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -1892,8 +1987,9 @@
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
-    </row>
-    <row r="28" ht="13.5" spans="1:9">
+      <c r="J27" s="2"/>
+    </row>
+    <row r="28" ht="13.5" spans="1:10">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -1903,8 +1999,9 @@
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
-    </row>
-    <row r="29" ht="13.5" spans="1:9">
+      <c r="J28" s="2"/>
+    </row>
+    <row r="29" ht="13.5" spans="1:10">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -1914,8 +2011,9 @@
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
-    </row>
-    <row r="30" ht="13.5" spans="1:9">
+      <c r="J29" s="2"/>
+    </row>
+    <row r="30" ht="13.5" spans="1:10">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -1925,8 +2023,9 @@
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
-    </row>
-    <row r="31" ht="13.5" spans="1:9">
+      <c r="J30" s="2"/>
+    </row>
+    <row r="31" ht="13.5" spans="1:10">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -1936,8 +2035,9 @@
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
-    </row>
-    <row r="32" ht="13.5" spans="1:9">
+      <c r="J31" s="2"/>
+    </row>
+    <row r="32" ht="13.5" spans="1:10">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -1947,8 +2047,9 @@
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
-    </row>
-    <row r="33" ht="13.5" spans="1:9">
+      <c r="J32" s="2"/>
+    </row>
+    <row r="33" ht="13.5" spans="1:10">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -1958,8 +2059,9 @@
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
-    </row>
-    <row r="34" ht="13.5" spans="1:9">
+      <c r="J33" s="2"/>
+    </row>
+    <row r="34" ht="13.5" spans="1:10">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -1969,8 +2071,9 @@
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
-    </row>
-    <row r="35" ht="13.5" spans="1:9">
+      <c r="J34" s="2"/>
+    </row>
+    <row r="35" ht="13.5" spans="1:10">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -1980,8 +2083,9 @@
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
-    </row>
-    <row r="36" ht="13.5" spans="1:9">
+      <c r="J35" s="2"/>
+    </row>
+    <row r="36" ht="13.5" spans="1:10">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -1991,8 +2095,9 @@
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
-    </row>
-    <row r="37" ht="13.5" spans="1:9">
+      <c r="J36" s="2"/>
+    </row>
+    <row r="37" ht="13.5" spans="1:10">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -2002,6 +2107,31 @@
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+    </row>
+    <row r="38" ht="13.5" spans="1:10">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+    </row>
+    <row r="39" ht="13.5" spans="1:10">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Tables/Tower.xlsx
+++ b/Tables/Tower.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17340"/>
+    <workbookView windowWidth="28800" windowHeight="12780"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111">
   <si>
     <t>名称</t>
   </si>
@@ -37,10 +37,7 @@
     <t>移动速度</t>
   </si>
   <si>
-    <t>技能(可使用)</t>
-  </si>
-  <si>
-    <t>技能池(需要学习)</t>
+    <t>技能系列</t>
   </si>
   <si>
     <t>列表效果器</t>
@@ -67,10 +64,7 @@
     <t>Speed</t>
   </si>
   <si>
-    <t>Skills</t>
-  </si>
-  <si>
-    <t>SkillPool</t>
+    <t>SkillClass</t>
   </si>
   <si>
     <t>BuildEffect</t>
@@ -178,10 +172,7 @@
     <t>100</t>
   </si>
   <si>
-    <t>1010001</t>
-  </si>
-  <si>
-    <t>1010011</t>
+    <t>1010001,1010011</t>
   </si>
   <si>
     <t>毒箭塔</t>
@@ -199,10 +190,7 @@
     <t>25</t>
   </si>
   <si>
-    <t>1011001</t>
-  </si>
-  <si>
-    <t>1011011,1011012</t>
+    <t>1011001,1011011</t>
   </si>
   <si>
     <t>学习技能:1010001,学习技能:1010011</t>
@@ -400,17 +388,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -429,6 +411,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -438,15 +434,45 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -469,10 +495,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -484,6 +510,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -491,51 +524,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -552,121 +540,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -678,61 +720,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -761,17 +749,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -800,11 +791,43 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -823,188 +846,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1021,54 +1009,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1335,27 +1323,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:J39"/>
+  <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.14423076923077" defaultRowHeight="17.6"/>
   <cols>
     <col min="1" max="1" width="21.625" style="1" customWidth="1"/>
-    <col min="2" max="4" width="20.8333333333333" style="1" customWidth="1"/>
+    <col min="2" max="4" width="20.8365384615385" style="1" customWidth="1"/>
     <col min="5" max="5" width="21.5" style="1" customWidth="1"/>
     <col min="6" max="6" width="26.5" style="1" customWidth="1"/>
-    <col min="7" max="9" width="18" style="1" customWidth="1"/>
-    <col min="10" max="10" width="42" style="1" customWidth="1"/>
-    <col min="11" max="11" width="13.5" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.14166666666667" style="1"/>
+    <col min="7" max="8" width="18" style="1" customWidth="1"/>
+    <col min="9" max="9" width="42" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.14423076923077" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:10">
+    <row r="1" s="1" customFormat="1" spans="1:9">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1383,165 +1371,153 @@
       <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:9">
+      <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:10">
-      <c r="A2" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="2" t="s">
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:9">
+      <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:10">
-      <c r="A3" s="2" t="s">
+      <c r="C3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" s="2" t="s">
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:9">
+      <c r="A4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:10">
-      <c r="A4" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="2" t="s">
+    </row>
+    <row r="5" customFormat="1" ht="16.8" spans="1:9">
+      <c r="A5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="5" customFormat="1" ht="13.5" spans="1:10">
-      <c r="A5" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="F5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="I5" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" s="2" t="s">
+    </row>
+    <row r="6" customFormat="1" ht="16.8" spans="1:9">
+      <c r="A6" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2" t="s">
+      <c r="B6" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="6" customFormat="1" ht="13.5" spans="1:10">
-      <c r="A6" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="G6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="I6" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" customFormat="1" ht="13.5" spans="1:10">
+    </row>
+    <row r="7" customFormat="1" ht="16.8" spans="1:9">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -1551,71 +1527,64 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-    </row>
-    <row r="8" customFormat="1" ht="13.5" spans="1:10">
+    </row>
+    <row r="8" customFormat="1" ht="16.8" spans="1:9">
       <c r="A8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="G8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" customFormat="1" ht="16.8" spans="1:9">
+      <c r="A9" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H8" s="2" t="s">
+      <c r="B9" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="J8" s="2"/>
-    </row>
-    <row r="9" customFormat="1" ht="13.5" spans="1:10">
-      <c r="A9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="F9" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="I9" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="10" customFormat="1" ht="13.5" spans="1:10">
+    </row>
+    <row r="10" customFormat="1" ht="16.8" spans="1:9">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -1624,12 +1593,11 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="11" customFormat="1" ht="13.5" spans="1:10">
+      <c r="I10" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" customFormat="1" ht="16.8" spans="1:9">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -1639,9 +1607,8 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-    </row>
-    <row r="12" ht="13.5" spans="1:10">
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -1651,97 +1618,93 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-    </row>
-    <row r="13" ht="13.5" spans="1:10">
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="I13" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C13" s="2" t="s">
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E13" s="2" t="s">
+      <c r="B14" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H13" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2" t="s">
+      <c r="D14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="14" ht="13.5" spans="1:10">
-      <c r="A14" s="2" t="s">
+      <c r="F14" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="G14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I14" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C14" s="2" t="s">
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E14" s="2" t="s">
+      <c r="B15" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="15" ht="13.5" spans="1:10">
-      <c r="A15" s="2" t="s">
+      <c r="E15" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="G15" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-    </row>
-    <row r="16" ht="13.5" spans="1:10">
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -1751,9 +1714,8 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-    </row>
-    <row r="17" ht="13.5" spans="1:10">
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -1763,97 +1725,93 @@
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-    </row>
-    <row r="18" ht="13.5" spans="1:10">
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="F18" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="G18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I18" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D18" s="2" t="s">
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="B19" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="C19" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="G18" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="19" ht="13.5" spans="1:10">
-      <c r="A19" s="2" t="s">
+      <c r="E19" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I19" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B19" s="2" t="s">
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="B20" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="C20" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2" t="s">
+      <c r="D20" s="2" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="20" ht="13.5" spans="1:10">
-      <c r="A20" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="E20" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-    </row>
-    <row r="21" ht="13.5" spans="1:10">
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -1863,9 +1821,8 @@
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-    </row>
-    <row r="22" ht="13.5" spans="1:10">
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -1875,97 +1832,93 @@
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-    </row>
-    <row r="23" ht="13.5" spans="1:10">
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I23" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B23" s="2" t="s">
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="B24" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E23" s="2" t="s">
+      <c r="C24" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="F23" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2" t="s">
+      <c r="D24" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="24" ht="13.5" spans="1:10">
-      <c r="A24" s="2" t="s">
+      <c r="F24" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="G24" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="H24" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I24" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E24" s="2" t="s">
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="B25" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="G24" s="2" t="s">
+      <c r="C25" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="H24" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2" t="s">
+      <c r="D25" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F25" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="25" ht="13.5" spans="1:10">
-      <c r="A25" s="2" t="s">
+      <c r="G25" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>114</v>
-      </c>
       <c r="H25" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-    </row>
-    <row r="26" ht="13.5" spans="1:10">
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -1975,9 +1928,8 @@
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-    </row>
-    <row r="27" ht="13.5" spans="1:10">
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -1987,9 +1939,8 @@
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-    </row>
-    <row r="28" ht="13.5" spans="1:10">
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -1999,9 +1950,8 @@
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-    </row>
-    <row r="29" ht="13.5" spans="1:10">
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -2011,9 +1961,8 @@
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-    </row>
-    <row r="30" ht="13.5" spans="1:10">
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -2023,9 +1972,8 @@
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-    </row>
-    <row r="31" ht="13.5" spans="1:10">
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -2035,9 +1983,8 @@
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-    </row>
-    <row r="32" ht="13.5" spans="1:10">
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -2047,9 +1994,8 @@
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-    </row>
-    <row r="33" ht="13.5" spans="1:10">
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -2059,9 +2005,8 @@
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-    </row>
-    <row r="34" ht="13.5" spans="1:10">
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -2071,9 +2016,8 @@
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-    </row>
-    <row r="35" ht="13.5" spans="1:10">
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -2083,9 +2027,8 @@
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-    </row>
-    <row r="36" ht="13.5" spans="1:10">
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -2095,9 +2038,8 @@
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-    </row>
-    <row r="37" ht="13.5" spans="1:10">
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -2107,9 +2049,8 @@
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
-    </row>
-    <row r="38" ht="13.5" spans="1:10">
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -2119,9 +2060,8 @@
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
-    </row>
-    <row r="39" ht="13.5" spans="1:10">
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -2131,7 +2071,6 @@
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Tables/Tower.xlsx
+++ b/Tables/Tower.xlsx
@@ -175,6 +175,9 @@
     <t>1010001,1010011</t>
   </si>
   <si>
+    <t>学习技能:1010011</t>
+  </si>
+  <si>
     <t>毒箭塔</t>
   </si>
   <si>
@@ -193,10 +196,7 @@
     <t>1011001,1011011</t>
   </si>
   <si>
-    <t>学习技能:1010001,学习技能:1010011</t>
-  </si>
-  <si>
-    <t>学习技能:1011001</t>
+    <t>学习技能:1011011</t>
   </si>
   <si>
     <t>法师塔</t>
@@ -354,10 +354,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -396,8 +396,85 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -411,92 +488,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -511,19 +505,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -540,31 +540,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -576,151 +708,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -758,15 +758,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -791,17 +782,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -821,13 +817,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -851,148 +851,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1328,7 +1328,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14423076923077" defaultRowHeight="17.6"/>
@@ -1553,23 +1553,25 @@
       <c r="H8" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="I8" s="2"/>
+      <c r="I8" s="2" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="9" customFormat="1" ht="16.8" spans="1:9">
       <c r="A9" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>51</v>
@@ -1578,10 +1580,10 @@
         <v>28</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" customFormat="1" ht="16.8" spans="1:9">
@@ -1593,9 +1595,7 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
-      <c r="I10" s="2" t="s">
-        <v>60</v>
-      </c>
+      <c r="I10" s="2"/>
     </row>
     <row r="11" customFormat="1" ht="16.8" spans="1:9">
       <c r="A11" s="2"/>
@@ -1608,7 +1608,7 @@
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" ht="16.8" spans="1:9">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -1619,7 +1619,7 @@
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" ht="16.8" spans="1:9">
       <c r="A13" s="2" t="s">
         <v>61</v>
       </c>
@@ -1648,7 +1648,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" ht="16.8" spans="1:9">
       <c r="A14" s="2" t="s">
         <v>67</v>
       </c>
@@ -1677,7 +1677,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" ht="16.8" spans="1:9">
       <c r="A15" s="2" t="s">
         <v>73</v>
       </c>
@@ -1704,7 +1704,7 @@
       </c>
       <c r="I15" s="2"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" ht="16.8" spans="1:9">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -1715,7 +1715,7 @@
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" ht="16.8" spans="1:9">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -1726,7 +1726,7 @@
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" ht="16.8" spans="1:9">
       <c r="A18" s="2" t="s">
         <v>78</v>
       </c>
@@ -1755,7 +1755,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" ht="16.8" spans="1:9">
       <c r="A19" s="2" t="s">
         <v>85</v>
       </c>
@@ -1784,7 +1784,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" ht="16.8" spans="1:9">
       <c r="A20" s="2" t="s">
         <v>90</v>
       </c>
@@ -1811,7 +1811,7 @@
       </c>
       <c r="I20" s="2"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" ht="16.8" spans="1:9">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -1822,7 +1822,7 @@
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" ht="16.8" spans="1:9">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -1833,7 +1833,7 @@
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" ht="16.8" spans="1:9">
       <c r="A23" s="2" t="s">
         <v>94</v>
       </c>
@@ -1862,7 +1862,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" ht="16.8" spans="1:9">
       <c r="A24" s="2" t="s">
         <v>99</v>
       </c>
@@ -1891,7 +1891,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" ht="16.8" spans="1:9">
       <c r="A25" s="2" t="s">
         <v>106</v>
       </c>
@@ -1918,7 +1918,7 @@
       </c>
       <c r="I25" s="2"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" ht="16.8" spans="1:9">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -1929,7 +1929,7 @@
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" ht="16.8" spans="1:9">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -1940,7 +1940,7 @@
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" ht="16.8" spans="1:9">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -1951,7 +1951,7 @@
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" ht="16.8" spans="1:9">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -1962,7 +1962,7 @@
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" ht="16.8" spans="1:9">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -1973,7 +1973,7 @@
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" ht="16.8" spans="1:9">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -1984,7 +1984,7 @@
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" ht="16.8" spans="1:9">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -1995,7 +1995,7 @@
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" ht="16.8" spans="1:9">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -2006,7 +2006,7 @@
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" ht="16.8" spans="1:9">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -2017,7 +2017,7 @@
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" ht="16.8" spans="1:9">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -2028,7 +2028,7 @@
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" ht="16.8" spans="1:9">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -2039,7 +2039,7 @@
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" ht="16.8" spans="1:9">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -2050,7 +2050,7 @@
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" ht="16.8" spans="1:9">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -2061,7 +2061,7 @@
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" ht="16.8" spans="1:9">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
